--- a/sdr_trend.xlsx
+++ b/sdr_trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RVS\Documents\Automation Files\your-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED77AC-4FFF-4593-81DB-EFCE8B9EAB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA67DC9-A586-491E-9B61-B01BD3EEE688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4325420-32D8-4180-BE2E-79B4EE81AC4F}"/>
   </bookViews>
@@ -425,9 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +433,9 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -443,7 +443,112 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2121"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2121"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2121"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2121"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF2121"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -876,263 +981,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02745B90-F882-4950-A148-578BAA9F5F8F}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="13" customWidth="1"/>
-    <col min="3" max="8" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="3" width="13.7109375" style="13" customWidth="1"/>
+    <col min="4" max="9" width="14.85546875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="25">
+        <v>45604</v>
+      </c>
+      <c r="D1" s="2">
         <v>45590</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>45583</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>45569</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>45562</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <v>45548</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <v>45541</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8">
         <f>C2-D2</f>
-        <v>-1.4693299999999923</v>
+        <v>-13.194100000000006</v>
       </c>
       <c r="C2" s="9">
+        <v>38.869309999999999</v>
+      </c>
+      <c r="D2" s="9">
         <v>52.063410000000005</v>
       </c>
-      <c r="D2" s="9">
+      <c r="E2" s="9">
         <v>53.532739999999997</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>49.735700000000001</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <v>44.465870000000002</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
       </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" ref="B3:B10" si="0">C3-D3</f>
-        <v>2.9227099999999986</v>
+        <f t="shared" ref="B3:B11" si="0">C3-D3</f>
+        <v>7.9044499999999989</v>
       </c>
       <c r="C3" s="11">
+        <v>15.871669999999998</v>
+      </c>
+      <c r="D3" s="11">
         <v>7.9672199999999993</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>5.0445100000000007</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="15">
         <v>32.779890000000002</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>38.571939999999998</v>
       </c>
-      <c r="G3" s="16">
+      <c r="H3" s="16">
         <v>10.97785</v>
       </c>
-      <c r="H3" s="16">
+      <c r="I3" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
-        <v>-0.4854099999999999</v>
+        <v>-2.5037699999999994</v>
       </c>
       <c r="C4" s="11">
+        <v>4.1610399999999998</v>
+      </c>
+      <c r="D4" s="11">
         <v>6.6648099999999992</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>7.1502199999999991</v>
       </c>
-      <c r="E4" s="15">
+      <c r="F4" s="15">
         <v>24.723760000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>24.726120000000002</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="16">
         <v>43.014360000000003</v>
       </c>
-      <c r="H4" s="16">
+      <c r="I4" s="16">
         <v>37.346150000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
-        <v>1.4537199999999988</v>
+        <v>-2.3894200000000003</v>
       </c>
       <c r="C5" s="11">
+        <v>6.4016899999999994</v>
+      </c>
+      <c r="D5" s="11">
         <v>8.7911099999999998</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>7.337390000000001</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
         <v>14.00357</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>14.00357</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="16">
         <v>59.184359999999998</v>
       </c>
-      <c r="H5" s="16">
+      <c r="I5" s="16">
         <v>74.739070000000012</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>-0.70259999999999989</v>
+        <v>5.6226800000000008</v>
       </c>
       <c r="C6" s="11">
+        <v>8.0359200000000008</v>
+      </c>
+      <c r="D6" s="11">
         <v>2.4132400000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>3.1158399999999999</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>4.1861800000000002</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>4.6655100000000003</v>
-      </c>
-      <c r="G6" s="16">
-        <v>11.801999999999998</v>
       </c>
       <c r="H6" s="16">
         <v>11.801999999999998</v>
       </c>
+      <c r="I6" s="16">
+        <v>11.801999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
-        <v>0.6821900000000003</v>
+        <v>1.2340000000000018E-2</v>
       </c>
       <c r="C7" s="11">
+        <v>7.8867300000000009</v>
+      </c>
+      <c r="D7" s="11">
         <v>7.8743900000000009</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>7.1922000000000006</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F7" s="15">
         <v>12.277249999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="11">
         <v>12.510299999999999</v>
-      </c>
-      <c r="G7" s="16">
-        <v>17.555040000000002</v>
       </c>
       <c r="H7" s="16">
         <v>17.555040000000002</v>
       </c>
+      <c r="I7" s="16">
+        <v>17.555040000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
-        <v>-2.756120000000001</v>
+        <v>6.3339999999999286E-2</v>
       </c>
       <c r="C8" s="11">
+        <v>7.5033199999999995</v>
+      </c>
+      <c r="D8" s="11">
         <v>7.4399800000000003</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>10.196100000000001</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>11.556760000000001</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="11">
         <v>11.556760000000001</v>
-      </c>
-      <c r="G8" s="16">
-        <v>21.290519999999994</v>
       </c>
       <c r="H8" s="16">
         <v>21.290519999999994</v>
       </c>
+      <c r="I8" s="16">
+        <v>21.290519999999994</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>2.2582500000000039</v>
+        <v>0.43453999999999837</v>
       </c>
       <c r="C9" s="11">
+        <v>88.022170000000003</v>
+      </c>
+      <c r="D9" s="11">
         <v>87.587630000000004</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>85.32938</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F9" s="15">
         <v>90.295500000000004</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="11">
         <v>90.295500000000004</v>
-      </c>
-      <c r="G9" s="16">
-        <v>93.027510000000007</v>
       </c>
       <c r="H9" s="16">
         <v>93.027510000000007</v>
       </c>
+      <c r="I9" s="16">
+        <v>93.027510000000007</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
@@ -1146,97 +1278,162 @@
       <c r="D10" s="18">
         <v>71.038470000000018</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
+        <v>71.038470000000018</v>
+      </c>
+      <c r="F10" s="19">
         <v>74.109610000000004</v>
       </c>
-      <c r="F10" s="18">
-        <v>74.109610000000004</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>74.109610000000004</v>
       </c>
       <c r="H10" s="20">
         <v>74.109610000000004</v>
       </c>
+      <c r="I10" s="20">
+        <v>74.109610000000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22">
-        <f t="shared" ref="B11" si="1">D11-E11</f>
-        <v>-63.731369999999998</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.0499400000000492</v>
+      </c>
+      <c r="C11" s="22">
         <f>SUM(C2:C10)</f>
+        <v>247.79032000000001</v>
+      </c>
+      <c r="D11" s="22">
+        <f>SUM(D2:D10)</f>
         <v>251.84026000000006</v>
       </c>
-      <c r="D11" s="23">
-        <f>SUM(D2:D10)</f>
+      <c r="E11" s="22">
+        <f>SUM(E2:E10)</f>
         <v>249.93685000000002</v>
       </c>
-      <c r="E11" s="24">
-        <f>SUM(E2:E10)</f>
+      <c r="F11" s="23">
+        <f>SUM(F2:F10)</f>
         <v>313.66822000000002</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="25">
-        <f>SUM(G2:G10)</f>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24">
+        <f>SUM(H2:H10)</f>
         <v>330.96124999999995</v>
       </c>
-      <c r="H11" s="25">
-        <f>SUM(H2:H10)</f>
+      <c r="I11" s="24">
+        <f>SUM(I2:I10)</f>
         <v>329.86990000000003</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D11">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="D2:E11">
+    <cfRule type="expression" dxfId="23" priority="16">
+      <formula>D2=E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>D2&lt;E2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>D2&gt;E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F10 F11:G11">
+    <cfRule type="expression" dxfId="20" priority="41">
+      <formula>F2&lt;H2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="42">
+      <formula>F2&gt;H2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:G11 F2:F10">
+    <cfRule type="expression" dxfId="18" priority="40">
+      <formula>F2=H2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H11">
+    <cfRule type="expression" dxfId="17" priority="37">
+      <formula>G2=H2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="38">
+      <formula>G2&lt;H2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="39">
+      <formula>G2&gt;H2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>C2=D2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>C2&lt;D2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>C2&gt;D2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E10 E11:F11">
-    <cfRule type="expression" dxfId="5" priority="26">
-      <formula>E2&lt;G2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27">
-      <formula>E2&gt;G2</formula>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>C3=D3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>C3&lt;D3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>C3&gt;D3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11 E2:E10">
-    <cfRule type="expression" dxfId="3" priority="25">
-      <formula>E2=G2</formula>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>C4=D4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>C4&lt;D4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>C4&gt;D4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G11">
-    <cfRule type="expression" dxfId="2" priority="22">
-      <formula>F2=G2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="23">
-      <formula>F2&lt;G2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>F2&gt;G2</formula>
+  <conditionalFormatting sqref="C5:C10">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>C5=D5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>C5&lt;D5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>C5&gt;D5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>C11=D11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>C11&lt;D11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>C11&gt;D11</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C11:I11" formulaRange="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>